--- a/Crawler_Format.xlsx
+++ b/Crawler_Format.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Primary SKU URL</t>
   </si>
@@ -55,12 +55,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -88,7 +95,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -101,7 +108,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -387,28 +394,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L2"/>
+  <dimension ref="B1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -444,7 +486,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -454,8 +498,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -466,8 +511,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Crawler_Format.xlsx
+++ b/Crawler_Format.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>Primary SKU URL</t>
   </si>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L2"/>
+  <dimension ref="B1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -415,7 +415,7 @@
     <col min="12" max="12" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -450,7 +450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -482,6 +482,41 @@
         <v>9</v>
       </c>
       <c r="L2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Crawler_Format.xlsx
+++ b/Crawler_Format.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Primary SKU URL</t>
   </si>
@@ -49,6 +49,50 @@
   </si>
   <si>
     <t>Secondary 4 SKU URL</t>
+  </si>
+  <si>
+    <t>amazon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.amazon.com/EVGA-Continuous-Warranty-Supply-100-W1-0500-KR/dp/B00H33SFJU/ref=pd_sim_147_7?ie=UTF8&amp;refRID=0JJ2BPZ1FC6W65FS8Q37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B00H33SFJU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Kingston-HyperX-FURY-2x4GB-1600MHz/dp/B00J8E93G6/ref=pd_sim_147_22?ie=UTF8&amp;refRID=0AM9RNJFBNZ6ESWTF268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B00J8E93G6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Rosewill-Tower-Gaming-Computer-Galaxy-01/dp/B00E0P7JFA/ref=pd_sim_147_23?ie=UTF8&amp;refRID=0AM9RNJFBNZ6ESWTF268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B00E0P7JFA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B00J2LIFBY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Intel-i5-4590-BX80646I54590-Processor-Cache/dp/B00J2LIFBY/ref=pd_sim_147_24?ie=UTF8&amp;refRID=0AM9RNJFBNZ6ESWTF268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.amazon.com/ASUS-Micro-Motherboard-B85M-G-R2-0/dp/B00KO6F8YI/ref=pd_sim_147_26?ie=UTF8&amp;refRID=0AM9RNJFBNZ6ESWTF268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B00KO6F8YI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -394,17 +438,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L3"/>
+  <dimension ref="B1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
     <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
@@ -452,72 +496,37 @@
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Crawler_Format.xlsx
+++ b/Crawler_Format.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Primary SKU URL</t>
   </si>
@@ -92,6 +92,50 @@
   </si>
   <si>
     <t>B00KO6F8YI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.newegg.com/Product/Product.aspx?Item=N82E16812119269&amp;cm_re=rosewill-_-12-119-269-_-Product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82-422-118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.newegg.com/Product/Product.aspx?Item=N82E16882422118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-119-269</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-147-360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.newegg.com/Product/Product.aspx?Item=N82E16820147360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-994-162</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.newegg.com/Product/Product.aspx?Item=N82E16817994162</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27-135-204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.newegg.com/Product/Product.aspx?Item=N82E16827135204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newegg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L2"/>
+  <dimension ref="B1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -527,6 +571,41 @@
       </c>
       <c r="L2" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Crawler_Format.xlsx
+++ b/Crawler_Format.xlsx
@@ -127,15 +127,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>27-135-204</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.newegg.com/Product/Product.aspx?Item=N82E16827135204</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>newegg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27-135-205</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -575,7 +575,7 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -602,10 +602,10 @@
         <v>29</v>
       </c>
       <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
         <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
